--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="8560" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2780" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>menu</t>
-  </si>
-  <si>
-    <t>IAM</t>
   </si>
   <si>
     <t>menu_item</t>
@@ -230,6 +227,22 @@
   </si>
   <si>
     <t>choerodon.code.knowledge.doc-project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>local_library</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +654,10 @@
     </row>
     <row r="8" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -653,7 +666,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -670,10 +683,10 @@
     </row>
     <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -682,7 +695,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -712,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -772,19 +785,19 @@
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>12</v>
@@ -793,7 +806,7 @@
         <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="O8" s="1">
         <v>7</v>
@@ -801,31 +814,31 @@
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N9" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -833,19 +846,19 @@
     </row>
     <row r="10" spans="4:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>12</v>
@@ -854,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="O10" s="1">
         <v>9</v>
@@ -862,31 +875,31 @@
     </row>
     <row r="11" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -907,7 +920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -923,32 +936,32 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.15">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2780" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2780" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -243,6 +243,14 @@
   </si>
   <si>
     <t>local_library</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -725,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -861,7 +869,7 @@
         <v>46</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>23</v>
@@ -893,7 +901,7 @@
         <v>45</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>24</v>
@@ -920,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/knowledgebase-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9410046D-4A15-C54A-AEAE-621FBDBADB53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2780" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2780" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -88,16 +89,10 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
-    <t>PARENT_CODE</t>
-  </si>
-  <si>
     <t>TYPE</t>
   </si>
   <si>
     <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
   </si>
   <si>
     <t>menu</t>
@@ -253,12 +248,20 @@
     <t>project</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>@PARENT_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -298,10 +301,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -311,6 +316,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -600,14 +608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -625,7 +633,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,12 +668,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14">
       <c r="F8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>11</v>
@@ -674,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -689,12 +697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -703,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -730,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O11"/>
   <sheetViews>
     <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -753,7 +761,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
@@ -775,139 +783,139 @@
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>19</v>
+      <c r="K7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O7" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O8" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L9" t="s">
         <v>12</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15" s="1" customFormat="1">
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -925,14 +933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -942,109 +950,109 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+      <c r="F8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F8" s="1" t="s">
+    </row>
+    <row r="9" spans="4:7">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="F9" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
       <c r="G10"/>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:7">
       <c r="G11"/>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:7">
       <c r="G12"/>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:7">
       <c r="G13"/>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:7">
       <c r="F14"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:7">
       <c r="F15"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:7">
       <c r="F16"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:7">
       <c r="F17"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:7">
       <c r="F18"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:7">
       <c r="F19"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:7">
       <c r="F20"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:7">
       <c r="F21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:7">
       <c r="F22"/>
       <c r="G22"/>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:7">
       <c r="F23"/>
       <c r="G23"/>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="6:7">
       <c r="F24"/>
       <c r="G24"/>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="6:7">
       <c r="F25"/>
       <c r="G25"/>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="6:7">
       <c r="F26"/>
       <c r="G26"/>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="6:7">
       <c r="F27"/>
       <c r="G27"/>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="6:7">
       <c r="F28"/>
       <c r="G28"/>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="6:7">
       <c r="F29"/>
       <c r="G29"/>
     </row>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,36 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/front/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9410046D-4A15-C54A-AEAE-621FBDBADB53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2780" windowWidth="31520" windowHeight="12320" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="48">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -65,18 +51,36 @@
     <t>IS_WITHIN</t>
   </si>
   <si>
+    <t>choerodon.route.knowledge.doc-organization</t>
+  </si>
+  <si>
+    <t>/knowledge/organization</t>
+  </si>
+  <si>
     <t>knowledge</t>
   </si>
   <si>
     <t>organization</t>
   </si>
   <si>
+    <t>组织知识管理路由</t>
+  </si>
+  <si>
     <t>page</t>
   </si>
   <si>
+    <t>choerodon.route.knowledge.doc-project</t>
+  </si>
+  <si>
+    <t>/knowledge/project</t>
+  </si>
+  <si>
     <t>project</t>
   </si>
   <si>
+    <t>项目知识管理路由</t>
+  </si>
+  <si>
     <t>IAM_MENU_B</t>
   </si>
   <si>
@@ -89,18 +93,60 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
+    <t>@PARENT_CODE</t>
+  </si>
+  <si>
     <t>TYPE</t>
   </si>
   <si>
     <t>ICON</t>
   </si>
   <si>
+    <t>@SORT</t>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.organization</t>
+  </si>
+  <si>
+    <t>知识管理</t>
+  </si>
+  <si>
+    <t>Knowledge Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+  </si>
+  <si>
     <t>menu</t>
   </si>
   <si>
+    <t>local_library</t>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-organization</t>
+  </si>
+  <si>
+    <t>文章管理</t>
+  </si>
+  <si>
+    <t>Document Management</t>
+  </si>
+  <si>
     <t>menu_item</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.project</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-project</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -110,186 +156,380 @@
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
-    <t>wiki-service.wiki-organization-space.pageByOptions</t>
-  </si>
-  <si>
-    <t>/knowledge/organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/knowledge/project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组织知识管理路由</t>
-    <rPh sb="0" eb="1">
-      <t>zu'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zhi'shi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guan'li</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>lu'you</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目知识管理路由</t>
-    <rPh sb="0" eb="1">
-      <t>xiang'mu</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>知识管理</t>
-    <rPh sb="0" eb="1">
-      <t>zhi'shi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>guan'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.top.organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章管理</t>
-    <rPh sb="0" eb="1">
-      <t>wen'zhang'guan'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Knowledge Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.knowledge.doc-project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.knowledge.doc-organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.doc-organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.doc-organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.doc-project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.doc-project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>book</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_library</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_library</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>@PARENT_CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>@SORT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>knowledgebase-service.work-space-organization.queryFirstTree</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryFirstTree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Droid Sans Fallback"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -297,28 +537,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,89 +1128,89 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="53.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="18.59765625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="53.6" customWidth="1"/>
+    <col min="7" max="7" width="41.8" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="21.6" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="13" width="18.6" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
-      <c r="D7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -697,24 +1222,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -727,9 +1252,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -738,193 +1262,193 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="35.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="49.3984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="35" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="15" width="11.59765625" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="45.4" customWidth="1"/>
+    <col min="7" max="7" width="16.8" customWidth="1"/>
+    <col min="8" max="8" width="35.8" customWidth="1"/>
+    <col min="9" max="9" width="49.4" customWidth="1"/>
+    <col min="10" max="10" width="18.6" customWidth="1"/>
+    <col min="11" max="11" width="35" customWidth="1"/>
+    <col min="12" max="12" width="19.2" customWidth="1"/>
+    <col min="13" max="15" width="11.6" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
-      <c r="D7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>56</v>
+      <c r="M7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
-      <c r="F8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1" t="s">
+    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
+      <c r="J8" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>32</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" t="s">
         <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:15" s="1" customFormat="1" ht="12.75" customHeight="1">
-      <c r="F10" s="2" t="s">
+    <row r="10" customFormat="1" ht="12.75" customHeight="1" spans="6:15">
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="6:15">
+      <c r="F11" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15" s="1" customFormat="1">
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="G11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="N11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -933,133 +1457,57 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="55.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="69.3984375" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="55.4" customWidth="1"/>
+    <col min="7" max="7" width="69.4" customWidth="1"/>
+    <col min="8" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>25</v>
+      <c r="F7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
-      <c r="F8" s="1" t="s">
+    <row r="8" ht="12.75" customHeight="1" spans="6:7">
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="9" spans="4:7">
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="G10"/>
-    </row>
-    <row r="11" spans="4:7">
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="4:7">
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="4:7">
-      <c r="G13"/>
-    </row>
-    <row r="14" spans="4:7">
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15" spans="4:7">
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="4:7">
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17" spans="6:7">
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18" spans="6:7">
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19" spans="6:7">
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20" spans="6:7">
-      <c r="F20"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="6:7">
-      <c r="F21"/>
-      <c r="G21"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22"/>
-      <c r="G22"/>
-    </row>
-    <row r="23" spans="6:7">
-      <c r="F23"/>
-      <c r="G23"/>
-    </row>
-    <row r="24" spans="6:7">
-      <c r="F24"/>
-      <c r="G24"/>
-    </row>
-    <row r="25" spans="6:7">
-      <c r="F25"/>
-      <c r="G25"/>
-    </row>
-    <row r="26" spans="6:7">
-      <c r="F26"/>
-      <c r="G26"/>
-    </row>
-    <row r="27" spans="6:7">
-      <c r="F27"/>
-      <c r="G27"/>
-    </row>
-    <row r="28" spans="6:7">
-      <c r="F28"/>
-      <c r="G28"/>
-    </row>
-    <row r="29" spans="6:7">
-      <c r="F29"/>
-      <c r="G29"/>
+    <row r="9" spans="6:7">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{94BADE95-8F81-9B4B-B657-95CF72FBC07C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AE37C65-F549-8844-ABEC-EF342AB62D3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -170,6 +170,17 @@
   </si>
   <si>
     <t>@TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.program-doc-project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +536,7 @@
   <dimension ref="D7:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -652,10 +663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:O11"/>
+  <dimension ref="D7:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -673,7 +684,7 @@
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -710,8 +721,11 @@
       <c r="O7" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+      <c r="P7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
@@ -740,7 +754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:16">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -772,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:15" ht="12.75" customHeight="1">
+    <row r="10" spans="4:16" ht="12.75" customHeight="1">
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
@@ -801,7 +815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:16">
       <c r="F11" t="s">
         <v>41</v>
       </c>
@@ -831,6 +845,41 @@
       </c>
       <c r="O11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16">
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/knowledgebase-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9AE37C65-F549-8844-ABEC-EF342AB62D3D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -176,19 +183,43 @@
     <t>CATEGORY</t>
   </si>
   <si>
-    <t>choerodon.code.knowledge.program-doc-project</t>
+    <t>choerodon.code.knowledge.program</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>choerodon.code.knowledge.program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>PROGRAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.knowledge.doc-program</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -532,14 +563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:N9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -557,7 +588,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14">
+    <row r="8" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -621,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -647,6 +678,35 @@
         <v>1</v>
       </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <v>0</v>
       </c>
     </row>
@@ -662,14 +722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D7:P12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H16" sqref="H16:H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
@@ -684,7 +744,7 @@
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1">
+    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -725,7 +785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="4:16" ht="12.75" customHeight="1">
+    <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
@@ -754,7 +814,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="4:16">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -786,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:16" ht="12.75" customHeight="1">
+    <row r="10" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>39</v>
       </c>
@@ -815,7 +875,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="4:16">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>41</v>
       </c>
@@ -847,39 +907,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:16">
-      <c r="F12" t="s">
-        <v>50</v>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
       <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
         <v>37</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N13" t="s">
         <v>38</v>
       </c>
-      <c r="O12">
+      <c r="O13">
         <v>1</v>
       </c>
-      <c r="P12" t="s">
-        <v>51</v>
+      <c r="P13" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -894,14 +986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:G10"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -911,7 +1003,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
@@ -925,7 +1017,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>34</v>
       </c>
@@ -933,11 +1025,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>41</v>
       </c>
       <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
     </row>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -136,9 +136,6 @@
     <t>choerodon.code.knowledge.doc-organization</t>
   </si>
   <si>
-    <t>文章管理</t>
-  </si>
-  <si>
     <t>Document Management</t>
   </si>
   <si>
@@ -212,6 +209,18 @@
   </si>
   <si>
     <t>choerodon.route.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -683,7 +692,7 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -726,7 +735,7 @@
   <dimension ref="D7:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:H17"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -770,10 +779,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -782,7 +791,7 @@
         <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -819,10 +828,10 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
         <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -837,10 +846,10 @@
         <v>14</v>
       </c>
       <c r="M9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" t="s">
         <v>37</v>
-      </c>
-      <c r="N9" t="s">
-        <v>38</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -848,7 +857,7 @@
     </row>
     <row r="10" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>29</v>
@@ -860,7 +869,7 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
@@ -877,13 +886,13 @@
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -892,16 +901,16 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
       </c>
       <c r="M11" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" t="s">
         <v>37</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -909,7 +918,7 @@
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -921,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
@@ -936,42 +945,42 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
         <v>52</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="M13" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" t="s">
         <v>37</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1005,16 +1014,16 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1022,23 +1031,23 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -154,37 +155,102 @@
     <t>choerodon.code.knowledge.doc-project</t>
   </si>
   <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryFirstTree</t>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryFirstTree</t>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROGRAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.knowledge.doc-program</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.queryFirstTree</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-project.queryFirstTree</t>
-  </si>
-  <si>
-    <t>@RESOURCE_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>@TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.program</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.program</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-organization</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.knowledge.doc-project</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -192,35 +258,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>choerodon.route.knowledge.doc-program</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PROGRAM</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PROGRAM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.knowledge.doc-program</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.knowledge.doc-program</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档管理</t>
+    <t>organization_project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -228,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -244,6 +290,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -692,7 +743,7 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -734,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -779,10 +830,10 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
@@ -791,7 +842,7 @@
         <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -825,10 +876,10 @@
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
@@ -886,10 +937,10 @@
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>35</v>
@@ -918,7 +969,7 @@
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
         <v>29</v>
@@ -945,27 +996,27 @@
         <v>3</v>
       </c>
       <c r="P12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -980,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +1050,7 @@
   <dimension ref="D7:G10"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1014,16 +1065,16 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1031,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.15">
@@ -1039,15 +1090,15 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1059,4 +1110,131 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="22.19921875" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="39.59765625" customWidth="1"/>
+    <col min="8" max="8" width="21.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>@SORT</t>
-  </si>
-  <si>
     <t>choerodon.code.knowledge.organization</t>
   </si>
   <si>
@@ -267,6 +264,10 @@
   </si>
   <si>
     <t>AGILE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +744,7 @@
     </row>
     <row r="10" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -785,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:P13"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -830,59 +831,59 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
         <v>32</v>
       </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
       <c r="O8">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -891,59 +892,59 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="s">
         <v>36</v>
       </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
       <c r="O9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
       </c>
       <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
         <v>32</v>
       </c>
-      <c r="N10" t="s">
-        <v>33</v>
-      </c>
       <c r="O10">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -952,86 +953,86 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
       </c>
       <c r="M11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" t="s">
-        <v>37</v>
-      </c>
       <c r="O11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
       <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
         <v>32</v>
       </c>
-      <c r="N12" t="s">
-        <v>33</v>
-      </c>
       <c r="O12">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
       </c>
       <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
         <v>36</v>
       </c>
-      <c r="N13" t="s">
-        <v>37</v>
-      </c>
       <c r="O13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1065,40 +1066,40 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -1130,27 +1131,27 @@
   <sheetData>
     <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
         <v>59</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>60</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>61</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -1158,10 +1159,10 @@
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" t="s">
-        <v>65</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
@@ -1169,32 +1170,32 @@
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -1202,10 +1203,10 @@
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1213,10 +1214,10 @@
     </row>
     <row r="14" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
@@ -1224,10 +1225,10 @@
     </row>
     <row r="15" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DEL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:N10"/>
+  <dimension ref="D7:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -649,7 +653,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,8 +687,11 @@
       <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="4:14" x14ac:dyDescent="0.15">
+      <c r="O7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -713,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -742,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>53</v>
       </c>
@@ -769,6 +776,9 @@
       </c>
       <c r="N10">
         <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -784,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:P13"/>
+  <dimension ref="D7:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -805,7 +815,7 @@
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -845,8 +855,11 @@
       <c r="P7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
@@ -875,7 +888,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>64</v>
       </c>
@@ -907,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
@@ -936,7 +949,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>65</v>
       </c>
@@ -968,7 +981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>48</v>
       </c>
@@ -999,8 +1012,11 @@
       <c r="P12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.15">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>66</v>
       </c>
@@ -1033,6 +1049,9 @@
       </c>
       <c r="P13" t="s">
         <v>51</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1048,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:G10"/>
+  <dimension ref="D7:H10"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1064,7 +1083,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
@@ -1077,8 +1096,11 @@
       <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
         <v>33</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>39</v>
       </c>
@@ -1094,12 +1116,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>43</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1143,7 @@
   <dimension ref="D7:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1195,7 +1220,7 @@
         <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="H12" t="s">
         <v>19</v>
@@ -1206,7 +1231,7 @@
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="5020" windowWidth="32320" windowHeight="14760" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="127">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -269,6 +270,220 @@
   <si>
     <t>SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.organization-wiki-management.space</t>
+  </si>
+  <si>
+    <t>/wiki/organization/space</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <r>
+      <t>Wiki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>空间路由</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.project-wiki-management.space</t>
+  </si>
+  <si>
+    <t>/wiki/project/space</t>
+  </si>
+  <si>
+    <r>
+      <t>Wiki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <charset val="1"/>
+      </rPr>
+      <t>路由</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.organization-wiki-management</t>
+  </si>
+  <si>
+    <t>Wiki管理</t>
+  </si>
+  <si>
+    <t>Wiki management</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>choerodon.code.organization-wiki-management.space</t>
+  </si>
+  <si>
+    <t>Wiki空间</t>
+  </si>
+  <si>
+    <t>Wiki space</t>
+  </si>
+  <si>
+    <t>book</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.project-wiki-management</t>
+  </si>
+  <si>
+    <t>choerodon.code.project-wiki-management.space</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.pageByOptions</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.create</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.query</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.update</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.checkName</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.delete</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.sync</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-organization-space.under</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.create</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.checkName</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.pageByOptions</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.query</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.update</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.delete</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.sync</t>
+  </si>
+  <si>
+    <t>wiki-service.wiki-project-space.under</t>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAMESPACE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>@SORT</t>
+  </si>
+  <si>
+    <t>NEED_ROLES</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>@POSITION</t>
+  </si>
+  <si>
+    <t>orgwiki</t>
+  </si>
+  <si>
+    <r>
+      <t>Wiki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空间</t>
+    </r>
+  </si>
+  <si>
+    <t>donut_small</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 0, "height": 4}</t>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 0, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t>$DEL</t>
   </si>
   <si>
     <t>$DEL</t>
@@ -279,7 +494,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -300,6 +515,17 @@
       <sz val="9"/>
       <name val="Droid Sans Fallback"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -322,11 +548,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -629,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:O10"/>
+  <dimension ref="D7:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O10" sqref="O10:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -781,6 +1008,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -794,7 +1085,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:Q13"/>
+  <dimension ref="D7:Q17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
@@ -1054,6 +1345,140 @@
         <v>1</v>
       </c>
     </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14">
+        <v>60</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16">
+        <v>70</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>86</v>
+      </c>
+      <c r="O17">
+        <v>10</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1067,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H10"/>
+  <dimension ref="D7:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1127,6 +1552,182 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" t="s">
+        <v>105</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.15">
+      <c r="F26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1140,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:H15"/>
+  <dimension ref="D7:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1154,7 +1755,7 @@
     <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.15">
       <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1170,8 +1771,11 @@
       <c r="H7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>63</v>
       </c>
@@ -1182,7 +1786,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1193,7 +1797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1204,7 +1808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
         <v>63</v>
       </c>
@@ -1215,7 +1819,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
         <v>67</v>
       </c>
@@ -1226,7 +1830,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
@@ -1237,7 +1841,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F14" s="1" t="s">
         <v>69</v>
       </c>
@@ -1248,7 +1852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.15">
       <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
@@ -1258,6 +1862,300 @@
       <c r="H15" t="s">
         <v>19</v>
       </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.15">
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.15">
+      <c r="F21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:S11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="15.796875" customWidth="1"/>
+    <col min="13" max="13" width="18.796875" customWidth="1"/>
+    <col min="16" max="16" width="17.19921875" customWidth="1"/>
+    <col min="17" max="17" width="14.796875" customWidth="1"/>
+    <col min="18" max="18" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="4">
+        <v>3</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="4">
+        <v>5</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>1</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+    </row>
+    <row r="11" spans="4:19" x14ac:dyDescent="0.15">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/knowledgebase-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/knowledgebase-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B520ED95-5CDD-2047-B216-ECC8530E6178}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32320" windowHeight="18920" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
     <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -156,9 +157,6 @@
   </si>
   <si>
     <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>knowledgebase-service.work-space-organization.queryFirstTree</t>
   </si>
   <si>
     <t>knowledgebase-service.work-space-project.queryFirstTree</t>
@@ -272,14 +270,22 @@
   </si>
   <si>
     <t>$DEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-organization.queryAllTree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>knowledgebase-service.work-space-project.queryAllTree</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -628,14 +634,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
@@ -653,7 +659,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,10 +694,10 @@
         <v>10</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15">
       <c r="F8" t="s">
         <v>11</v>
       </c>
@@ -720,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -749,9 +755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -793,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:Q13"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" customWidth="1"/>
@@ -815,7 +821,7 @@
     <col min="13" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:17" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
@@ -841,25 +847,25 @@
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="N7" t="s">
         <v>26</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
         <v>70</v>
       </c>
-      <c r="P7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="4:17" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>27</v>
       </c>
@@ -888,12 +894,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:17">
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
         <v>34</v>
@@ -920,7 +926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:17" ht="12.75" customHeight="1">
       <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
@@ -949,12 +955,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:17">
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>34</v>
@@ -981,9 +987,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:17">
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
         <v>28</v>
@@ -1010,30 +1016,30 @@
         <v>20</v>
       </c>
       <c r="P12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:17">
       <c r="F13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J13" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" t="s">
         <v>19</v>
@@ -1048,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="P13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13">
         <v>1</v>
@@ -1066,14 +1072,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" customWidth="1"/>
@@ -1083,9 +1089,9 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1097,31 +1103,31 @@
         <v>41</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
         <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1139,14 +1145,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="22.19921875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
@@ -1154,26 +1160,26 @@
     <col min="8" max="8" width="21.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>60</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>61</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="4:8">
+      <c r="F8" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="F8" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>27</v>
@@ -1182,42 +1188,42 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:8">
       <c r="F9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" t="s">
         <v>63</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:8">
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
       <c r="F11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>37</v>
@@ -1226,20 +1232,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:8">
       <c r="F13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:8">
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>37</v>
@@ -1248,12 +1254,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:8">
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
